--- a/MFE Program.xlsx
+++ b/MFE Program.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmokshin\Documents\School Classes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FD0AE-BF00-4FE9-9817-681BD10905CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{174B81B7-91CD-4F5B-A123-D9E5A3645AF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="total programs" sheetId="1" r:id="rId1"/>
@@ -23,8 +17,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'total programs'!$A$2:$J$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="194">
   <si>
     <t>Princeton University</t>
   </si>
@@ -699,15 +696,18 @@
   <si>
     <t xml:space="preserve">The course is an introduction to the rapidly evolving universe of alternative investments. Delivered in modules, the course covers a broad array of alternative strategy classeS(Quantitative/Systematic, Fundamental Long/Short, Global Macro, Private Equity) ranging across all major asset classes (Equities, Fixed Income, Currencies, Commodities, Derivatives).* *Subject to NY Approval. </t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,16 +801,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,24 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -907,22 +889,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -949,6 +916,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,7 +1011,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1063,7 +1063,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1257,35 +1257,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9056694-FB80-4FAB-87B5-C14F543ABB46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B6" sqref="A6:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="72.5">
+    <row r="2" spans="1:10" ht="56">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1318,664 +1318,626 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="26">
         <v>100</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="26">
         <v>3.9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="25">
         <v>120000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="26">
         <v>169</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="29">
-      <c r="A6" s="13">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="28">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="26">
         <v>99</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="26">
         <v>4</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="24">
         <v>0.97</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="24">
         <v>0.97</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="25">
         <v>109339</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="26">
         <v>169.5</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="26">
         <v>98</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="26">
         <v>3.9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="24">
         <v>0.83</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="24">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="25">
         <v>104656</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="26">
         <v>169.3</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="25">
         <v>72648</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13">
+      <c r="A12" s="27">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="26">
         <v>98</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="26">
         <v>4</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="24">
         <v>0.86</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="25">
         <v>99000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="26">
         <v>169</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="25">
         <v>72000</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="27">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="26">
         <v>90</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="26">
         <v>3.7</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="24">
         <v>0.68</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="24">
         <v>0.87</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="25">
         <v>93000</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="26">
         <v>168</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="25">
         <v>78000</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="27">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="26">
         <v>85</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="26">
         <v>3.6</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="24">
         <v>0.37</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="24">
         <v>0.86</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="25">
         <v>95217</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="26">
         <v>169.2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="25">
         <v>72505</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="27">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="26">
         <v>84</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="26">
         <v>3.4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="24">
         <v>0.75</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="24">
         <v>0.87</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="25">
         <v>91000</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="26">
         <v>169.1</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="25">
         <v>63403</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="27">
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="26">
         <v>78</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="26">
         <v>2.4</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="24">
         <v>0.75</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="24">
         <v>0.9</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="25">
         <v>96970</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="26">
         <v>168</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="25">
         <v>60000</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13">
+      <c r="A27" s="27">
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="26">
         <v>70</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="26">
         <v>2.8</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="24">
         <v>0.61</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="24">
         <v>0.89</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="25">
         <v>72291</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="26">
         <v>167.2</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13">
+      <c r="A30" s="27">
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="26">
         <v>62</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="24">
         <v>0.32</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="24">
         <v>0.79</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="25">
         <v>74211</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="26">
         <v>166</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="25">
         <v>47270</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="13"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="13"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J32" xr:uid="{03E13E4D-9C20-45FC-BC0C-82F395B065AF}"/>
+  <autoFilter ref="A2:J32"/>
   <mergeCells count="90">
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
@@ -1992,441 +1954,467 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.quantnet.com/resources/princeton-university-master-in-finance-program.6/" xr:uid="{538F1E6B-6DCA-4DCA-901E-D0B82C660655}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://www.quantnet.com/resources/baruch-college-financial-engineering-program.1/" xr:uid="{4A1CEE14-0F52-47B0-B1A0-DF0CC73B9DFC}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.quantnet.com/resources/columbia-university-financial-engineering-program.5/" xr:uid="{CA2771AE-F543-4A77-AB9E-CD43A934D845}"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://www.quantnet.com/resources/nyu-mathematics-of-finance-program.2/" xr:uid="{4295F211-E3A3-461C-A3AC-A62DB21EE595}"/>
-    <hyperlink ref="B16" r:id="rId5" display="https://www.quantnet.com/resources/cornell-university-financial-engineering-program.8/" xr:uid="{F17F2E1D-EF29-4967-8ABF-096F1B4226EA}"/>
-    <hyperlink ref="B19" r:id="rId6" display="https://www.quantnet.com/resources/columbia-university-mathematics-of-finance-program.12/" xr:uid="{A4A01DAA-2982-4256-972A-F80498CFD51B}"/>
-    <hyperlink ref="B22" r:id="rId7" display="https://www.quantnet.com/resources/nyu-poly-financial-engineering-program.17/" xr:uid="{33AE0F8A-52A5-4C22-B047-5FA261B94A35}"/>
-    <hyperlink ref="B25" r:id="rId8" display="https://www.quantnet.com/resources/fordham-university-quantitative-finance-program.22/" xr:uid="{3C7ED6D5-6669-448E-B644-BCF4EA80F91D}"/>
-    <hyperlink ref="B28" r:id="rId9" display="https://www.quantnet.com/resources/rutgers-university-mathematical-finance-program.13/" xr:uid="{1C350D84-EE35-47A4-BE0B-FBBDDEF6CADA}"/>
-    <hyperlink ref="B31" r:id="rId10" display="https://quantnet.org/resources/stevens-institute-of-technology-financial-engineering-program.20/" xr:uid="{1E107E3B-5089-441E-BD21-B392A0C6802E}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.quantnet.com/resources/princeton-university-master-in-finance-program.6/"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://www.quantnet.com/resources/baruch-college-financial-engineering-program.1/"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://www.quantnet.com/resources/columbia-university-financial-engineering-program.5/"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://www.quantnet.com/resources/nyu-mathematics-of-finance-program.2/"/>
+    <hyperlink ref="B16" r:id="rId5" display="https://www.quantnet.com/resources/cornell-university-financial-engineering-program.8/"/>
+    <hyperlink ref="B19" r:id="rId6" display="https://www.quantnet.com/resources/columbia-university-mathematics-of-finance-program.12/"/>
+    <hyperlink ref="B22" r:id="rId7" display="https://www.quantnet.com/resources/nyu-poly-financial-engineering-program.17/"/>
+    <hyperlink ref="B25" r:id="rId8" display="https://www.quantnet.com/resources/fordham-university-quantitative-finance-program.22/"/>
+    <hyperlink ref="B28" r:id="rId9" display="https://www.quantnet.com/resources/rutgers-university-mathematical-finance-program.13/"/>
+    <hyperlink ref="B31" r:id="rId10" display="https://quantnet.org/resources/stevens-institute-of-technology-financial-engineering-program.20/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79A6F55-C08D-4E04-901B-AD5249DD7BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="87">
-      <c r="A1" s="13">
+    <row r="1" spans="1:10" ht="84">
+      <c r="A1" s="27">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="26">
         <v>99</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="26">
         <v>4</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="24">
         <v>0.97</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="24">
         <v>0.97</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="25">
         <v>109339</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="26">
         <v>169.5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:10" ht="42">
+      <c r="A2" s="27"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="29">
-      <c r="A3" s="13"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="28">
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="58">
-      <c r="A4" s="13">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="42">
+      <c r="A4" s="27">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="26">
         <v>98</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="26">
         <v>4</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="24">
         <v>0.86</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="25">
         <v>99000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="26">
         <v>169</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="25">
         <v>72000</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:10" ht="42">
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="29">
-      <c r="A6" s="13"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="28">
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="43.5">
-      <c r="A7" s="21">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="42">
+      <c r="A7" s="28">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="29">
         <v>90</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="29">
         <v>3.7</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="30">
         <v>0.68</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="30">
         <v>0.87</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="31">
         <v>93000</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="29">
         <v>168</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="31">
         <v>78000</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="43.5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="42">
+      <c r="A8" s="28"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" ht="29">
-      <c r="A9" s="21"/>
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="15" customFormat="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="43.5">
-      <c r="A10" s="21">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="42">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="29">
         <v>85</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="29">
         <v>3.6</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="30">
         <v>0.37</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="30">
         <v>0.86</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="31">
         <v>95217</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="29">
         <v>169.2</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="31">
         <v>72505</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="43.5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="42">
+      <c r="A11" s="28"/>
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="29">
-      <c r="A12" s="21"/>
-      <c r="B12" s="28" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="28">
+      <c r="A12" s="28"/>
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="72.5">
-      <c r="A13" s="13">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="70">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="26">
         <v>84</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="26">
         <v>3.4</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="24">
         <v>0.75</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="24">
         <v>0.87</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="25">
         <v>91000</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="26">
         <v>169.1</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="25">
         <v>63403</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:10" ht="42">
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="29">
-      <c r="A15" s="13"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" ht="28">
+      <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="43.5">
-      <c r="A16" s="13">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" ht="42">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="26">
         <v>78</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="26">
         <v>2.4</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="24">
         <v>0.75</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="24">
         <v>0.9</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="25">
         <v>96970</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="26">
         <v>168</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="25">
         <v>60000</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.5">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:10" ht="42">
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="29">
-      <c r="A18" s="13"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="28">
+      <c r="A18" s="27"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="J10:J12"/>
@@ -2443,49 +2431,70 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.quantnet.com/resources/baruch-college-financial-engineering-program.1/" xr:uid="{89ED2E41-BEE8-4B9E-ADF8-FAB93434D76A}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.quantnet.com/resources/nyu-mathematics-of-finance-program.2/" xr:uid="{43726D22-61E1-40BA-9F9F-E98D62339F2B}"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://www.quantnet.com/resources/cornell-university-financial-engineering-program.8/" xr:uid="{7018B7E1-65BA-4BBD-9F4D-2E1EC706351D}"/>
-    <hyperlink ref="B11" r:id="rId4" display="https://www.quantnet.com/resources/columbia-university-mathematics-of-finance-program.12/" xr:uid="{E57AD4A4-1C7E-4B49-A9C3-A4A789010C9C}"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://www.quantnet.com/resources/nyu-poly-financial-engineering-program.17/" xr:uid="{7590D9E9-D73A-4102-A86A-225700102E1F}"/>
-    <hyperlink ref="B17" r:id="rId6" display="https://www.quantnet.com/resources/fordham-university-quantitative-finance-program.22/" xr:uid="{EEB7E098-202F-41AE-8C58-3BAED3764C81}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.quantnet.com/resources/baruch-college-financial-engineering-program.1/"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.quantnet.com/resources/nyu-mathematics-of-finance-program.2/"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://www.quantnet.com/resources/cornell-university-financial-engineering-program.8/"/>
+    <hyperlink ref="B11" r:id="rId4" display="https://www.quantnet.com/resources/columbia-university-mathematics-of-finance-program.12/"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://www.quantnet.com/resources/nyu-poly-financial-engineering-program.17/"/>
+    <hyperlink ref="B17" r:id="rId6" display="https://www.quantnet.com/resources/fordham-university-quantitative-finance-program.22/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BEE03A-3DC6-4505-BC19-14B79913C561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.5">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:16" ht="18">
+      <c r="B2" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
@@ -2495,187 +2504,187 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="58">
+    <row r="4" spans="2:16" ht="42">
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:16" ht="87">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="2:16" ht="70">
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="2:16" ht="72.5">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="2:16" ht="70">
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:16" ht="43.5">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="2:16" ht="42">
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="2:16" ht="58">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="2:16" ht="42">
       <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" ht="159.5">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="2:16" ht="140">
       <c r="B9" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="2:16" ht="130.5">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="2:16" ht="112">
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="2:16" ht="174">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="2:16" ht="154">
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="2:16" ht="145">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="2:16" ht="140">
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="2:16" ht="116">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="2:16" ht="112">
       <c r="B13" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="2:16">
       <c r="C14" s="5"/>
@@ -2737,29 +2746,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E3DC0E-3FF8-4EC0-92EE-D74EFC931709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="61.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18.5">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:17" ht="18">
+      <c r="B2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
@@ -2813,75 +2826,75 @@
       <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="2:17" ht="29">
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="2:17" ht="28">
       <c r="B16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="6" t="s">
@@ -2889,31 +2902,31 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="2:17" ht="29">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="6" t="s">
@@ -2921,15 +2934,15 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="6" t="s">
@@ -2937,15 +2950,15 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="6" t="s">
@@ -2953,15 +2966,15 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="6" t="s">
@@ -2969,15 +2982,15 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="6" t="s">
@@ -2985,15 +2998,15 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="6" t="s">
@@ -3001,15 +3014,15 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="6" t="s">
@@ -3017,15 +3030,15 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="6" t="s">
@@ -3033,15 +3046,15 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="6" t="s">
@@ -3049,15 +3062,15 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="6" t="s">
@@ -3065,15 +3078,15 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="6" t="s">
@@ -3081,15 +3094,15 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="6" t="s">
@@ -3097,15 +3110,15 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="6" t="s">
@@ -3113,31 +3126,31 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="32" spans="2:17" ht="29">
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="2:17" ht="28">
       <c r="B32" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="6" t="s">
@@ -3145,15 +3158,15 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="6" t="s">
@@ -3161,15 +3174,15 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="6" t="s">
@@ -3177,15 +3190,15 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="6" t="s">
@@ -3193,15 +3206,15 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="6" t="s">
@@ -3209,15 +3222,15 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="6" t="s">
@@ -3225,15 +3238,15 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="7" t="s">
@@ -3241,15 +3254,15 @@
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="10" t="s">
@@ -3257,15 +3270,15 @@
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="10" t="s">
@@ -3273,15 +3286,15 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="10" t="s">
@@ -3296,193 +3309,198 @@
     <mergeCell ref="I12:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA22FF3-1595-4B5B-99F7-7ADEA635CEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="55.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.90625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.5">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:3" ht="18">
+      <c r="B2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="116">
+    <row r="4" spans="2:3" ht="98">
       <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="130.5">
+    <row r="5" spans="2:3" ht="126">
       <c r="B5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="217.5">
+    <row r="6" spans="2:3" ht="196">
       <c r="B6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="116">
+    <row r="7" spans="2:3" ht="112">
       <c r="B7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="188.5">
+    <row r="8" spans="2:3" ht="168">
       <c r="B8" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="87">
+    <row r="9" spans="2:3" ht="70">
       <c r="B9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58">
+    <row r="10" spans="2:3" ht="42">
       <c r="B10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="130.5">
+    <row r="11" spans="2:3" ht="126">
       <c r="B11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="130.5">
+    <row r="12" spans="2:3" ht="126">
       <c r="B12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="116">
+    <row r="13" spans="2:3" ht="98">
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="58">
+    <row r="14" spans="2:3" ht="42">
       <c r="B14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="29">
+    <row r="15" spans="2:3" ht="28">
       <c r="B15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="87">
+    <row r="16" spans="2:3" ht="84">
       <c r="B16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="203">
+    <row r="17" spans="2:15" ht="168">
       <c r="B17" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-    </row>
-    <row r="18" spans="2:15" ht="145">
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="2:15" ht="126">
       <c r="B18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-    </row>
-    <row r="19" spans="2:15" ht="188.5">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="2:15" ht="168">
       <c r="B19" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3490,239 +3508,251 @@
     <mergeCell ref="G17:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC666742-55F5-4269-8349-6796D71D5915}">
-  <dimension ref="A2:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="92.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.5">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42.5">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:3" ht="52">
+      <c r="A5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:3" ht="65">
+      <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:3" ht="52">
+      <c r="A7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:3" ht="52">
+      <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:3" ht="52">
+      <c r="A9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="48">
-      <c r="A10" s="31" t="s">
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52">
+      <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:3" ht="78">
+      <c r="A11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:3" ht="52">
+      <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:3" ht="52">
+      <c r="A13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:3" ht="52">
+      <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="72">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:3" ht="78">
+      <c r="A15" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:3" ht="26">
+      <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:2" ht="39">
+      <c r="A17" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="24">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:2" ht="26">
+      <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:2" ht="26">
+      <c r="A19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" ht="58">
-      <c r="A21" s="29" t="s">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="42">
+      <c r="A21" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="58">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:2" ht="42">
+      <c r="A22" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="72.5">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:2" ht="70">
+      <c r="A23" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="58">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:2" ht="56">
+      <c r="A24" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="43.5">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:2" ht="42">
+      <c r="A26" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="72.5">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:2" ht="56">
+      <c r="A27" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="58">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:2" ht="56">
+      <c r="A28" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="11" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>